--- a/促音.xlsx
+++ b/促音.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{485E876F-801D-4C6D-8B68-8DB78A55EDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5718005-3E8F-4823-8ECA-469F37C27460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2928" yWindow="2928" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="126">
   <si>
     <t>真っ直ぐ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -560,6 +559,14 @@
   </si>
   <si>
     <t>にってい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あさって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明後日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -899,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C65"/>
+  <dimension ref="A2:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1430,6 +1437,14 @@
         <v>123</v>
       </c>
     </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/促音.xlsx
+++ b/促音.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5718005-3E8F-4823-8ECA-469F37C27460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD75820-B566-4279-A07F-0ECBA114C23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13380" yWindow="1080" windowWidth="9576" windowHeight="10488" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="126">
   <si>
     <t>真っ直ぐ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -906,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C66"/>
+  <dimension ref="A2:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1445,6 +1445,14 @@
         <v>124</v>
       </c>
     </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/促音.xlsx
+++ b/促音.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD75820-B566-4279-A07F-0ECBA114C23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0FC819-FD5A-4861-BA2A-0FEEECC82C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="1080" windowWidth="9576" windowHeight="10488" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="12876" windowHeight="11124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="128">
   <si>
     <t>真っ直ぐ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -567,6 +567,14 @@
   </si>
   <si>
     <t>明後日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出席</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅっせき</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -906,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C67"/>
+  <dimension ref="A2:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1453,6 +1461,14 @@
         <v>83</v>
       </c>
     </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/促音.xlsx
+++ b/促音.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0FC819-FD5A-4861-BA2A-0FEEECC82C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D227D164-2E88-43FB-B9A8-E91891B72795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="12876" windowHeight="11124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="130">
   <si>
     <t>真っ直ぐ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -575,6 +575,14 @@
   </si>
   <si>
     <t>しゅっせき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅっぱん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -914,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C68"/>
+  <dimension ref="A2:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1469,6 +1477,14 @@
         <v>127</v>
       </c>
     </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/促音.xlsx
+++ b/促音.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D227D164-2E88-43FB-B9A8-E91891B72795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89C782E-63C7-4915-A4E4-FEB6A4756DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="133">
   <si>
     <t>真っ直ぐ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -585,12 +585,36 @@
     <t>しゅっぱん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>早速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さっそく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（立即，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>马上）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,6 +641,13 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -922,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C69"/>
+  <dimension ref="A2:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1445,7 +1476,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>122</v>
       </c>
@@ -1453,7 +1484,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>125</v>
       </c>
@@ -1461,7 +1492,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>82</v>
       </c>
@@ -1469,7 +1500,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>126</v>
       </c>
@@ -1477,12 +1508,31 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/促音.xlsx
+++ b/促音.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89C782E-63C7-4915-A4E4-FEB6A4756DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A908F64A-827F-4827-9BE2-478D3D276780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="139">
   <si>
     <t>真っ直ぐ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -607,6 +607,30 @@
       </rPr>
       <t>马上）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楽器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>がっき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょっき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>積極</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せっきょく</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -953,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C71"/>
+  <dimension ref="A2:C74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1535,6 +1559,30 @@
         <v>132</v>
       </c>
     </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/促音.xlsx
+++ b/促音.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A908F64A-827F-4827-9BE2-478D3D276780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B79C2EA-B74F-4B0F-970C-6DC63E0B16A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="146">
   <si>
     <t>真っ直ぐ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -633,12 +633,52 @@
     <t>せっきょく</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>吃逆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゃっくり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罰金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ばっきん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>発見</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はっけん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发现）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -670,6 +710,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -977,17 +1024,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C74"/>
+  <dimension ref="A2:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="29.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -1583,6 +1631,33 @@
         <v>138</v>
       </c>
     </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/促音.xlsx
+++ b/促音.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B79C2EA-B74F-4B0F-970C-6DC63E0B16A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD6F938-3EA2-4925-B94B-57A3EDD91BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="150">
   <si>
     <t>真っ直ぐ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -671,6 +671,34 @@
       </rPr>
       <t>发现）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どっかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>短处，缺陷）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良さ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1024,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C77"/>
+  <dimension ref="A2:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1289,7 +1317,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>58</v>
       </c>
@@ -1297,7 +1325,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>60</v>
       </c>
@@ -1305,7 +1333,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>62</v>
       </c>
@@ -1313,7 +1341,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>64</v>
       </c>
@@ -1321,7 +1349,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
@@ -1329,7 +1357,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>68</v>
       </c>
@@ -1337,7 +1365,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>70</v>
       </c>
@@ -1345,7 +1373,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>72</v>
       </c>
@@ -1353,7 +1381,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
@@ -1361,7 +1389,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>76</v>
       </c>
@@ -1369,7 +1397,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>78</v>
       </c>
@@ -1380,15 +1408,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C44" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>82</v>
       </c>
@@ -1396,266 +1430,274 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>115</v>
+        <v>131</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A78" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/促音.xlsx
+++ b/促音.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD6F938-3EA2-4925-B94B-57A3EDD91BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E35781-8970-4382-AE35-EC266EBAD8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="151">
   <si>
     <t>真っ直ぐ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -699,6 +699,10 @@
   </si>
   <si>
     <t>良さ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1052,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D78"/>
+  <dimension ref="A2:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD46"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:XFD80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1643,60 +1647,68 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A79" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>123</v>
       </c>
     </row>

--- a/促音.xlsx
+++ b/促音.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E35781-8970-4382-AE35-EC266EBAD8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29C021F-37DC-4DC4-9D15-72CDEE41C25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="158">
   <si>
     <t>真っ直ぐ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -703,6 +703,34 @@
   </si>
   <si>
     <t>学期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せっかく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（好不容易地）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勿体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もったい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨折</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こっせつ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1056,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D79"/>
+  <dimension ref="A2:D81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:XFD80"/>
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1080,234 +1108,234 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>55</v>
@@ -1315,331 +1343,331 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>95</v>
+        <v>148</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>115</v>
+        <v>131</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>134</v>
@@ -1647,69 +1675,88 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>123</v>
+        <v>152</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/促音.xlsx
+++ b/促音.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29C021F-37DC-4DC4-9D15-72CDEE41C25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802688D3-6B85-4EDC-9225-3A6123ABE251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/促音.xlsx
+++ b/促音.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802688D3-6B85-4EDC-9225-3A6123ABE251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A177124-D219-41F0-85BA-B67292F1E8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="162">
   <si>
     <t>真っ直ぐ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -731,6 +731,22 @@
   </si>
   <si>
     <t>こっせつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けっかん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぶっけん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1084,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D81"/>
+  <dimension ref="A2:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1759,6 +1775,22 @@
         <v>157</v>
       </c>
     </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/促音.xlsx
+++ b/促音.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A177124-D219-41F0-85BA-B67292F1E8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300D2400-DBEA-44B8-81C3-2DA666600F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="163">
   <si>
     <t>真っ直ぐ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -747,6 +747,10 @@
   </si>
   <si>
     <t>ぶっけん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>実施</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1100,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D83"/>
+  <dimension ref="A2:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1791,6 +1795,14 @@
         <v>161</v>
       </c>
     </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
